--- a/ValueSet-admission-source-vs.xlsx
+++ b/ValueSet-admission-source-vs.xlsx
@@ -84,7 +84,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the modes of transport or pathways by which the patient arrived.</t>
+    <t>This ValueSet enumerates modes of transport or pathways by which a patient arrived for the index stroke encounter.
+**Primary use-cases**
+- Bind to admission source elements (commonly `Encounter.hospitalization.admitSource` or local equivalents) to support:
+  - operational reporting (ambulance vs own transport),
+  - pathway compliance (e.g., EMS prenotification pathways),
+  - inter-facility transfer analytics.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-admission-source-vs.xlsx
+++ b/ValueSet-admission-source-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
